--- a/Crawling/music/crawled_data/mod_flo/live_flo_20220509_110006.xlsx
+++ b/Crawling/music/crawled_data/mod_flo/live_flo_20220509_110006.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>flo</t>
+    <t>Flo</t>
   </si>
   <si>
     <t>2022-05-09</t>

--- a/Crawling/music/crawled_data/mod_flo/live_flo_20220509_110006.xlsx
+++ b/Crawling/music/crawled_data/mod_flo/live_flo_20220509_110006.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="253">
   <si>
     <t>사이트</t>
   </si>
@@ -685,7 +685,7 @@
     <t>스윙</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>MBC</t>
@@ -773,9 +773,6 @@
   </si>
   <si>
     <t>iMe KOREA</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1185,7 @@
         <v>215</v>
       </c>
       <c r="H2" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1266,7 +1263,7 @@
         <v>218</v>
       </c>
       <c r="H5" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1292,7 +1289,7 @@
         <v>219</v>
       </c>
       <c r="H6" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1318,7 +1315,7 @@
         <v>220</v>
       </c>
       <c r="H7" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1344,7 +1341,7 @@
         <v>220</v>
       </c>
       <c r="H8" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1396,7 +1393,7 @@
         <v>219</v>
       </c>
       <c r="H10" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1422,7 +1419,7 @@
         <v>220</v>
       </c>
       <c r="H11" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1474,7 +1471,7 @@
         <v>223</v>
       </c>
       <c r="H13" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1500,7 +1497,7 @@
         <v>224</v>
       </c>
       <c r="H14" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1526,7 +1523,7 @@
         <v>220</v>
       </c>
       <c r="H15" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1552,7 +1549,7 @@
         <v>220</v>
       </c>
       <c r="H16" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1578,7 +1575,7 @@
         <v>225</v>
       </c>
       <c r="H17" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1604,7 +1601,7 @@
         <v>226</v>
       </c>
       <c r="H18" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1630,7 +1627,7 @@
         <v>220</v>
       </c>
       <c r="H19" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1656,7 +1653,7 @@
         <v>227</v>
       </c>
       <c r="H20" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1708,7 +1705,7 @@
         <v>220</v>
       </c>
       <c r="H22" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1734,7 +1731,7 @@
         <v>228</v>
       </c>
       <c r="H23" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1760,7 +1757,7 @@
         <v>220</v>
       </c>
       <c r="H24" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1786,7 +1783,7 @@
         <v>229</v>
       </c>
       <c r="H25" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1812,7 +1809,7 @@
         <v>220</v>
       </c>
       <c r="H26" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1838,7 +1835,7 @@
         <v>220</v>
       </c>
       <c r="H27" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1864,7 +1861,7 @@
         <v>230</v>
       </c>
       <c r="H28" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1890,7 +1887,7 @@
         <v>215</v>
       </c>
       <c r="H29" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1916,7 +1913,7 @@
         <v>220</v>
       </c>
       <c r="H30" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1942,7 +1939,7 @@
         <v>220</v>
       </c>
       <c r="H31" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1994,7 +1991,7 @@
         <v>220</v>
       </c>
       <c r="H33" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2020,7 +2017,7 @@
         <v>220</v>
       </c>
       <c r="H34" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2046,7 +2043,7 @@
         <v>231</v>
       </c>
       <c r="H35" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2072,7 +2069,7 @@
         <v>232</v>
       </c>
       <c r="H36" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2098,7 +2095,7 @@
         <v>215</v>
       </c>
       <c r="H37" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2124,7 +2121,7 @@
         <v>231</v>
       </c>
       <c r="H38" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2150,7 +2147,7 @@
         <v>233</v>
       </c>
       <c r="H39" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2176,7 +2173,7 @@
         <v>234</v>
       </c>
       <c r="H40" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2202,7 +2199,7 @@
         <v>226</v>
       </c>
       <c r="H41" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2228,7 +2225,7 @@
         <v>218</v>
       </c>
       <c r="H42" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2254,7 +2251,7 @@
         <v>227</v>
       </c>
       <c r="H43" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2306,7 +2303,7 @@
         <v>224</v>
       </c>
       <c r="H45" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2332,7 +2329,7 @@
         <v>235</v>
       </c>
       <c r="H46" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2358,7 +2355,7 @@
         <v>227</v>
       </c>
       <c r="H47" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2384,7 +2381,7 @@
         <v>215</v>
       </c>
       <c r="H48" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2436,7 +2433,7 @@
         <v>219</v>
       </c>
       <c r="H50" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2462,7 +2459,7 @@
         <v>231</v>
       </c>
       <c r="H51" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2488,7 +2485,7 @@
         <v>236</v>
       </c>
       <c r="H52" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2514,7 +2511,7 @@
         <v>237</v>
       </c>
       <c r="H53" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2566,7 +2563,7 @@
         <v>227</v>
       </c>
       <c r="H55" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2592,7 +2589,7 @@
         <v>238</v>
       </c>
       <c r="H56" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2618,7 +2615,7 @@
         <v>239</v>
       </c>
       <c r="H57" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2644,7 +2641,7 @@
         <v>219</v>
       </c>
       <c r="H58" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2696,7 +2693,7 @@
         <v>223</v>
       </c>
       <c r="H60" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2774,7 +2771,7 @@
         <v>235</v>
       </c>
       <c r="H63" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2800,7 +2797,7 @@
         <v>241</v>
       </c>
       <c r="H64" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2826,7 +2823,7 @@
         <v>227</v>
       </c>
       <c r="H65" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2852,7 +2849,7 @@
         <v>242</v>
       </c>
       <c r="H66" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2878,7 +2875,7 @@
         <v>231</v>
       </c>
       <c r="H67" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2904,7 +2901,7 @@
         <v>227</v>
       </c>
       <c r="H68" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2956,7 +2953,7 @@
         <v>227</v>
       </c>
       <c r="H70" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3008,7 +3005,7 @@
         <v>243</v>
       </c>
       <c r="H72" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3034,7 +3031,7 @@
         <v>215</v>
       </c>
       <c r="H73" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3060,7 +3057,7 @@
         <v>227</v>
       </c>
       <c r="H74" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3086,7 +3083,7 @@
         <v>228</v>
       </c>
       <c r="H75" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3138,7 +3135,7 @@
         <v>244</v>
       </c>
       <c r="H77" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3190,7 +3187,7 @@
         <v>245</v>
       </c>
       <c r="H79" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3216,7 +3213,7 @@
         <v>246</v>
       </c>
       <c r="H80" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3242,7 +3239,7 @@
         <v>242</v>
       </c>
       <c r="H81" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3268,7 +3265,7 @@
         <v>242</v>
       </c>
       <c r="H82" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3294,7 +3291,7 @@
         <v>247</v>
       </c>
       <c r="H83" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3320,7 +3317,7 @@
         <v>223</v>
       </c>
       <c r="H84" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3372,7 +3369,7 @@
         <v>223</v>
       </c>
       <c r="H86" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3398,7 +3395,7 @@
         <v>231</v>
       </c>
       <c r="H87" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3424,7 +3421,7 @@
         <v>231</v>
       </c>
       <c r="H88" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3476,7 +3473,7 @@
         <v>248</v>
       </c>
       <c r="H90" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3502,7 +3499,7 @@
         <v>249</v>
       </c>
       <c r="H91" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3554,7 +3551,7 @@
         <v>215</v>
       </c>
       <c r="H93" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3580,7 +3577,7 @@
         <v>250</v>
       </c>
       <c r="H94" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3606,7 +3603,7 @@
         <v>251</v>
       </c>
       <c r="H95" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3658,7 +3655,7 @@
         <v>215</v>
       </c>
       <c r="H97" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3684,7 +3681,7 @@
         <v>223</v>
       </c>
       <c r="H98" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3710,7 +3707,7 @@
         <v>252</v>
       </c>
       <c r="H99" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3736,7 +3733,7 @@
         <v>223</v>
       </c>
       <c r="H100" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3762,7 +3759,7 @@
         <v>223</v>
       </c>
       <c r="H101" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
